--- a/BiTech.Library/BiTech.Library/Tempaltes/MauDDC.xlsx
+++ b/BiTech.Library/BiTech.Library/Tempaltes/MauDDC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pro Test\pro2\BiTech.Library\BiTech.Library\Tempaltes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,34 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã DDC</t>
+    <r>
+      <t>Mã DDC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
-    <t>Tên thể loại</t>
+    <r>
+      <t>Tên thể loại</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -40,7 +64,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -59,6 +83,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -109,12 +140,13 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4"/>
@@ -460,185 +492,185 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22" style="3" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>